--- a/Assets/600036.ss.xlsx
+++ b/Assets/600036.ss.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,6 +1764,52 @@
         <v>58101958</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B58" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="C58" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="D58" t="n">
+        <v>29.04</v>
+      </c>
+      <c r="E58" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="F58" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="G58" t="n">
+        <v>47516511</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B59" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="D59" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G59" t="n">
+        <v>62063752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Assets/600036.ss.xlsx
+++ b/Assets/600036.ss.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,6 +1810,52 @@
         <v>62063752</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B60" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="D60" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="F60" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="G60" t="n">
+        <v>55156006</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28.72</v>
+      </c>
+      <c r="C61" t="n">
+        <v>28.74</v>
+      </c>
+      <c r="D61" t="n">
+        <v>28.07</v>
+      </c>
+      <c r="E61" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28.26</v>
+      </c>
+      <c r="G61" t="n">
+        <v>88273644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
